--- a/data/trans_dic/P02E$contratada-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P02E$contratada-Habitat-trans_dic.xlsx
@@ -681,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01856663548088203</v>
+        <v>0.01891458852119618</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.006960238607974406</v>
+        <v>0.006483113671163536</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.00318248764920054</v>
+        <v>0.003233428139648408</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.006441845907531655</v>
+        <v>0.006709139207978067</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01119688640093619</v>
+        <v>0.01104918513058083</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05251754417002021</v>
+        <v>0.04781104732943529</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03693937322803483</v>
+        <v>0.04002698805387456</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08477480670258336</v>
+        <v>0.08631374336911096</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0361289023182839</v>
+        <v>0.03513555296422572</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04458062281194805</v>
+        <v>0.04077776737491511</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03293577931653965</v>
+        <v>0.03422648538947527</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02840785170194743</v>
+        <v>0.03083677029767534</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03224401146169829</v>
+        <v>0.03042920028217123</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04515291998353807</v>
+        <v>0.04444991595082065</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.005330388129603955</v>
+        <v>0.005402492049161816</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.003193552458571796</v>
+        <v>0.003158956127906863</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.009401942485349838</v>
+        <v>0.008248936085548232</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.002433879167214216</v>
+        <v>0.002428055714064926</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.005766404213432916</v>
+        <v>0.005875843842927659</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01217986718900282</v>
+        <v>0.01254767920380084</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.003992149441666797</v>
+        <v>0.003911186371957945</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.006910608836362625</v>
+        <v>0.006131452074271053</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06416739984649526</v>
+        <v>0.06697494896819148</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03154923947514546</v>
+        <v>0.03186192252443979</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03844616295875784</v>
+        <v>0.04047537328865899</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05317416429828448</v>
+        <v>0.04842173126901865</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02777447251424212</v>
+        <v>0.02835206239648203</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03569783393390309</v>
+        <v>0.03383301009908882</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04402120000570711</v>
+        <v>0.04418074556233614</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02186825311358285</v>
+        <v>0.0209960433537174</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02900620814308722</v>
+        <v>0.02877722049057169</v>
       </c>
     </row>
     <row r="10">
@@ -894,28 +894,28 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.004559955666527536</v>
+        <v>0.004484257642164187</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.004941917718637428</v>
+        <v>0.004894524370442551</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.00591850111910786</v>
+        <v>0.005930598333165733</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.00782145102830187</v>
+        <v>0.008921000947659852</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.00298919099442856</v>
+        <v>0.002992544731838751</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.009712831271232798</v>
+        <v>0.009046904467835574</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.009562767697487276</v>
+        <v>0.009442174571724636</v>
       </c>
     </row>
     <row r="12">
@@ -927,28 +927,28 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.05399692667443538</v>
+        <v>0.05401987912010345</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04479072901707761</v>
+        <v>0.04461568528004681</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04811053078475753</v>
+        <v>0.04212973694678918</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03948191599687956</v>
+        <v>0.03810180874935466</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05353710361825632</v>
+        <v>0.05308266505403034</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02831077958605402</v>
+        <v>0.03139881455503514</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03613577174660138</v>
+        <v>0.03586830187350897</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03776578248995355</v>
+        <v>0.03859665282941995</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.009917538918365866</v>
+        <v>0.009879180967825982</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.007497413705445599</v>
+        <v>0.007377582857873221</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01054041323523477</v>
+        <v>0.01079575270617119</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.004394091178573215</v>
+        <v>0.005776130168101514</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01678305839924343</v>
+        <v>0.01705094787926249</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01387077203433282</v>
+        <v>0.01359115199944235</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01049060106952178</v>
+        <v>0.009851631172607817</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01606045396618629</v>
+        <v>0.01741523864975601</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01779039514202323</v>
+        <v>0.01589332249259704</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0550774918972716</v>
+        <v>0.06091611219072948</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05777628275178007</v>
+        <v>0.05502120806650087</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06160802456266162</v>
+        <v>0.06001077966179105</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04717634336255348</v>
+        <v>0.04359685506211605</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05396950518322792</v>
+        <v>0.05409335948827276</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05936009712289812</v>
+        <v>0.05398661386201836</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03947509648522828</v>
+        <v>0.03738425835893535</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04427462671510098</v>
+        <v>0.04557095126408109</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04732438335140714</v>
+        <v>0.04694177983825744</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.008495247021382969</v>
+        <v>0.008612073867771745</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.00975808502566191</v>
+        <v>0.009856341343384256</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01382992081206635</v>
+        <v>0.01423062128688245</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01014406286268207</v>
+        <v>0.01022745839017606</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01273817289822906</v>
+        <v>0.0124087449516218</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01256062562535054</v>
+        <v>0.01292774132032781</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.011598361441671</v>
+        <v>0.01173832180378101</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01295007627918228</v>
+        <v>0.01292480200772786</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01535820840389223</v>
+        <v>0.01501167811580892</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03340353868922658</v>
+        <v>0.03270489087822527</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02697739162228813</v>
+        <v>0.02782786998637292</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03678226731994452</v>
+        <v>0.03677431033770811</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02867513657975724</v>
+        <v>0.02878387025312814</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02918461469402468</v>
+        <v>0.02672692800416068</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03150654271741368</v>
+        <v>0.03046447324392034</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02620553226928697</v>
+        <v>0.0263228969908688</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02399932860244533</v>
+        <v>0.0248431160519951</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02978062872938546</v>
+        <v>0.02919271787552177</v>
       </c>
     </row>
     <row r="19">
@@ -1401,25 +1401,25 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2978</v>
+        <v>3034</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2077</v>
+        <v>1935</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1118</v>
+        <v>1136</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3203</v>
+        <v>3336</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>4000</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="7">
@@ -1430,31 +1430,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6892</v>
+        <v>6274</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7343</v>
+        <v>7956</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13597</v>
+        <v>13844</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7947</v>
+        <v>7729</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>13303</v>
+        <v>12168</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6482</v>
+        <v>6736</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>9977</v>
+        <v>10830</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>16031</v>
+        <v>15128</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>16129</v>
+        <v>15878</v>
       </c>
     </row>
     <row r="8">
@@ -1539,31 +1539,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1049</v>
+        <v>1064</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2878</v>
+        <v>2525</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2065</v>
+        <v>2104</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>6126</v>
+        <v>6311</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3040</v>
+        <v>2979</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>4118</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="11">
@@ -1574,31 +1574,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>12632</v>
+        <v>13184</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9581</v>
+        <v>9676</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9143</v>
+        <v>9626</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>16276</v>
+        <v>14821</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>12717</v>
+        <v>12981</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>12785</v>
+        <v>12117</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>22140</v>
+        <v>22220</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>16654</v>
+        <v>15989</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>17286</v>
+        <v>17150</v>
       </c>
     </row>
     <row r="12">
@@ -1684,28 +1684,28 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>1006</v>
+        <v>990</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2099</v>
+        <v>2103</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1985</v>
+        <v>2265</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5588</v>
+        <v>5205</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3996</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="15">
@@ -1717,28 +1717,28 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>11917</v>
+        <v>11922</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7346</v>
+        <v>7317</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9506</v>
+        <v>8324</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>14001</v>
+        <v>13512</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>13590</v>
+        <v>13475</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>9210</v>
+        <v>10215</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>20790</v>
+        <v>20636</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>15780</v>
+        <v>16127</v>
       </c>
     </row>
     <row r="16">
@@ -1823,31 +1823,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1690</v>
+        <v>1683</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1962</v>
+        <v>1930</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2050</v>
+        <v>2099</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1240</v>
+        <v>1630</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6814</v>
+        <v>6923</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4192</v>
+        <v>4107</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4747</v>
+        <v>4458</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>10723</v>
+        <v>11628</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>8835</v>
+        <v>7893</v>
       </c>
     </row>
     <row r="19">
@@ -1858,31 +1858,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>9384</v>
+        <v>10378</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>15117</v>
+        <v>14397</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>11980</v>
+        <v>11669</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>13312</v>
+        <v>12302</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>21912</v>
+        <v>21963</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>17938</v>
+        <v>16314</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>17864</v>
+        <v>16918</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>29561</v>
+        <v>30426</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>23503</v>
+        <v>23313</v>
       </c>
     </row>
     <row r="20">
@@ -1967,31 +1967,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5320</v>
+        <v>5393</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>9610</v>
+        <v>9707</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>10465</v>
+        <v>10768</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>10203</v>
+        <v>10287</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>19322</v>
+        <v>18823</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>13955</v>
+        <v>14363</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>18929</v>
+        <v>19157</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>32397</v>
+        <v>32334</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>28684</v>
+        <v>28037</v>
       </c>
     </row>
     <row r="23">
@@ -2002,31 +2002,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>20917</v>
+        <v>20480</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>26567</v>
+        <v>27405</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>27832</v>
+        <v>27826</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>28842</v>
+        <v>28951</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>44270</v>
+        <v>40542</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>35003</v>
+        <v>33846</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>42768</v>
+        <v>42959</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>60039</v>
+        <v>62150</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>55620</v>
+        <v>54522</v>
       </c>
     </row>
     <row r="24">
